--- a/Code/Project/Data/markovchain.xlsx
+++ b/Code/Project/Data/markovchain.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai Jensen\Documents\Classes\MacroModeling\Working\Project\Code\Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AE9988-732E-4FB8-A3F4-1BD5303DC605}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AD3E60-36C7-4F73-93B3-156360EEB25F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E0F14EBA-B21C-497A-96AB-4C91A5A95EE0}"/>
+    <workbookView xWindow="240" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{E0F14EBA-B21C-497A-96AB-4C91A5A95EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="markov chain" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -11673,709 +11672,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4785A0AB-D85A-4C7B-BBFA-CE8FA4510BD2}">
-  <dimension ref="A1:BM102"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>-3.547040965360337</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>-3.4517405033236277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>-3.3564400412869184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>-3.2611395792502091</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>-3.1658391172134999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>-3.0705386551767906</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>-2.9752381931400813</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>-2.879937731103372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>-2.7846372690666628</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>-2.6893368070299535</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>-2.5940363449932442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>-2.4987358829565349</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>-2.4034354209198256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>-2.3081349588831164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>-2.2128344968464071</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>-2.1175340348096978</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>-2.0222335727729885</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>-1.9269331107362793</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>-1.83163264869957</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>-1.7363321866628607</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>-1.6410317246261514</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>-1.5457312625894422</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>-1.4504308005527329</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>-1.3551303385160236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>-1.2598298764793143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>-1.164529414442605</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>-1.0692289524058958</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>-0.97392849036918649</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>-0.87862802833247722</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>-0.78332756629576794</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>-0.68802710425905866</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>-0.59272664222234939</v>
-      </c>
-    </row>
-    <row r="33" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>-0.49742618018564005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>-0.40212571814893072</v>
-      </c>
-    </row>
-    <row r="35" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>-0.30682525611222139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>-0.21152479407551206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>-0.11622433203880272</v>
-      </c>
-    </row>
-    <row r="38" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>-2.0923870002093392E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>7.437659203461594E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>0.16967705407132527</v>
-      </c>
-    </row>
-    <row r="41" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>0.26497751610803461</v>
-      </c>
-    </row>
-    <row r="42" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>0.36027797814474394</v>
-      </c>
-    </row>
-    <row r="43" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>0.45557844018145327</v>
-      </c>
-    </row>
-    <row r="44" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>0.5508789022181626</v>
-      </c>
-      <c r="F44">
-        <v>-3.547040965360337</v>
-      </c>
-      <c r="G44">
-        <v>-2.6893368070299535</v>
-      </c>
-      <c r="H44">
-        <v>6.0783057003473013</v>
-      </c>
-      <c r="I44">
-        <v>-2.4987358829565349</v>
-      </c>
-      <c r="J44">
-        <v>-2.4034354209198256</v>
-      </c>
-      <c r="K44">
-        <v>-2.3081349588831164</v>
-      </c>
-      <c r="L44">
-        <v>-2.2128344968464071</v>
-      </c>
-      <c r="M44">
-        <v>-2.1175340348096978</v>
-      </c>
-      <c r="N44">
-        <v>-2.0222335727729885</v>
-      </c>
-      <c r="O44">
-        <v>-1.9269331107362793</v>
-      </c>
-      <c r="P44">
-        <v>-1.7363321866628607</v>
-      </c>
-      <c r="Q44">
-        <v>-1.6410317246261514</v>
-      </c>
-      <c r="R44">
-        <v>-1.5457312625894422</v>
-      </c>
-      <c r="S44">
-        <v>-1.4504308005527329</v>
-      </c>
-      <c r="T44">
-        <v>-1.3551303385160236</v>
-      </c>
-      <c r="U44">
-        <v>-1.2598298764793143</v>
-      </c>
-      <c r="V44">
-        <v>-1.164529414442605</v>
-      </c>
-      <c r="W44">
-        <v>-1.0692289524058958</v>
-      </c>
-      <c r="X44">
-        <v>-0.97392849036918649</v>
-      </c>
-      <c r="Y44">
-        <v>-0.87862802833247722</v>
-      </c>
-      <c r="Z44">
-        <v>-0.78332756629576794</v>
-      </c>
-      <c r="AA44">
-        <v>-0.68802710425905866</v>
-      </c>
-      <c r="AB44">
-        <v>-0.59272664222234939</v>
-      </c>
-      <c r="AC44">
-        <v>-0.49742618018564005</v>
-      </c>
-      <c r="AD44">
-        <v>-0.40212571814893072</v>
-      </c>
-      <c r="AE44">
-        <v>-0.30682525611222139</v>
-      </c>
-      <c r="AF44">
-        <v>-0.21152479407551206</v>
-      </c>
-      <c r="AG44">
-        <v>-0.11622433203880272</v>
-      </c>
-      <c r="AH44">
-        <v>-2.0923870002093392E-2</v>
-      </c>
-      <c r="AI44">
-        <v>7.437659203461594E-2</v>
-      </c>
-      <c r="AJ44">
-        <v>0.16967705407132527</v>
-      </c>
-      <c r="AK44">
-        <v>0.26497751610803461</v>
-      </c>
-      <c r="AL44">
-        <v>0.36027797814474394</v>
-      </c>
-      <c r="AM44">
-        <v>0.45557844018145327</v>
-      </c>
-      <c r="AN44">
-        <v>0.5508789022181626</v>
-      </c>
-      <c r="AO44">
-        <v>0.64617936425487188</v>
-      </c>
-      <c r="AP44">
-        <v>0.74147982629158116</v>
-      </c>
-      <c r="AQ44">
-        <v>0.83678028832829043</v>
-      </c>
-      <c r="AR44">
-        <v>0.93208075036499971</v>
-      </c>
-      <c r="AS44">
-        <v>1.027381212401709</v>
-      </c>
-      <c r="AT44">
-        <v>1.1226816744384183</v>
-      </c>
-      <c r="AU44">
-        <v>1.2179821364751275</v>
-      </c>
-      <c r="AV44">
-        <v>1.3132825985118368</v>
-      </c>
-      <c r="AW44">
-        <v>1.4085830605485461</v>
-      </c>
-      <c r="AX44">
-        <v>1.5038835225852554</v>
-      </c>
-      <c r="AY44">
-        <v>1.5991839846219646</v>
-      </c>
-      <c r="AZ44">
-        <v>1.7897849086953832</v>
-      </c>
-      <c r="BA44">
-        <v>1.8850853707320925</v>
-      </c>
-      <c r="BB44">
-        <v>2.0756862948055113</v>
-      </c>
-      <c r="BC44">
-        <v>2.1709867568422205</v>
-      </c>
-      <c r="BD44">
-        <v>2.3615876809156391</v>
-      </c>
-      <c r="BE44">
-        <v>2.4568881429523484</v>
-      </c>
-      <c r="BF44">
-        <v>2.5521886049890576</v>
-      </c>
-      <c r="BG44">
-        <v>2.6474890670257669</v>
-      </c>
-      <c r="BH44" s="1">
-        <v>2.9333904531358947</v>
-      </c>
-      <c r="BI44">
-        <v>3.028690915172604</v>
-      </c>
-      <c r="BJ44">
-        <v>3.4098927633194411</v>
-      </c>
-      <c r="BK44">
-        <v>3.7910946114662782</v>
-      </c>
-      <c r="BL44">
-        <v>4.5534983077599529</v>
-      </c>
-      <c r="BM44">
-        <v>5.3159020040536271</v>
-      </c>
-    </row>
-    <row r="45" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>0.64617936425487188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>0.74147982629158116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>0.83678028832829043</v>
-      </c>
-    </row>
-    <row r="48" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>0.93208075036499971</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>1.027381212401709</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>1.1226816744384183</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>1.2179821364751275</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>1.3132825985118368</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>1.4085830605485461</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>1.5038835225852554</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>1.5991839846219646</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>1.6944844466586739</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>1.7897849086953832</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>1.8850853707320925</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>1.9803858327688018</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>2.0756862948055113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>2.1709867568422205</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>2.2662872188789298</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>2.3615876809156391</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>2.4568881429523484</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>2.5521886049890576</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>2.6474890670257669</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>2.7427895290624762</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>2.8380899910991855</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>2.9333904531358947</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>3.028690915172604</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>3.1239913772093133</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>3.2192918392460226</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>3.3145923012827319</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>3.4098927633194411</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>3.5051932253561504</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>3.6004936873928597</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>3.695794149429569</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>3.7910946114662782</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>3.8863950735029875</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>3.9816955355396968</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>4.0769959975764065</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>4.1722964596131158</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>4.2675969216498251</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>4.3628973836865343</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>4.4581978457232436</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>4.5534983077599529</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>4.6487987697966622</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>4.7440992318333715</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>4.8393996938700807</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>4.93470015590679</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>5.0300006179434993</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>5.1253010799802086</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>5.2206015420169178</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>5.3159020040536271</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>5.4112024660903364</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>5.5065029281270457</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>5.6018033901637549</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>5.6971038522004642</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>5.7924043142371735</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>5.8877047762738828</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>5.9830052383105921</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>6.0783057003473013</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>